--- a/scripts/nsdm-project/main/settings/expert-table.xlsx
+++ b/scripts/nsdm-project/main/settings/expert-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aadde\AppData\Local\Temp\scp50212\work\FAC\FGSE\IDYST\aguisan\valpar\workshop\scripts\nsdm-workshop\main\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aadde\AppData\Local\Temp\scp39082\work\FAC\FGSE\IDYST\aguisan\valpar\wd_test\scripts\nsdm-project\main\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DFDA39-5338-4631-8E68-F0ABB6EF84AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C20E5-CD08-4C4E-BAEB-5B68E9D37DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="130">
   <si>
     <t>Agaricomycetes (Fungi)</t>
   </si>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>lulc</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>glo</t>
+  </si>
+  <si>
+    <t>chelsa</t>
   </si>
 </sst>
 </file>
@@ -781,1151 +793,1832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D125" sqref="D125"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="77" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="1" customWidth="1"/>
-    <col min="9" max="19" width="8.85546875" style="2"/>
-    <col min="20" max="16384" width="8.85546875" style="15"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" style="1" customWidth="1"/>
+    <col min="10" max="20" width="8.88671875" style="2"/>
+    <col min="21" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="I42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="I47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1</v>
+      </c>
+      <c r="I49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="E51" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="F51" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13">
+        <v>1</v>
+      </c>
+      <c r="I51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D52" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="F52" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="G52" s="13">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="F53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="13">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+      <c r="H53" s="13">
+        <v>1</v>
+      </c>
+      <c r="I53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F54" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="F55" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16">
+        <v>1</v>
+      </c>
+      <c r="I55" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="F56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="G56" s="16">
+        <v>1</v>
+      </c>
+      <c r="H56" s="16">
+        <v>1</v>
+      </c>
+      <c r="I56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E57" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="F57" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
-        <v>1</v>
-      </c>
-      <c r="H38" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
+      <c r="H57" s="16">
+        <v>1</v>
+      </c>
+      <c r="I57" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="16">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="G58" s="16">
+        <v>1</v>
+      </c>
+      <c r="H58" s="16">
+        <v>1</v>
+      </c>
+      <c r="I58" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F59" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="16">
-        <v>1</v>
-      </c>
-      <c r="H40" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="G59" s="16">
+        <v>1</v>
+      </c>
+      <c r="H59" s="16">
+        <v>1</v>
+      </c>
+      <c r="I59" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E60" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="F60" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="G60" s="16">
+        <v>1</v>
+      </c>
+      <c r="H60" s="16">
+        <v>1</v>
+      </c>
+      <c r="I60" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="F61" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="G61" s="16">
+        <v>1</v>
+      </c>
+      <c r="H61" s="16">
+        <v>1</v>
+      </c>
+      <c r="I61" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E62" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F62" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="G62" s="16">
+        <v>1</v>
+      </c>
+      <c r="H62" s="16">
+        <v>1</v>
+      </c>
+      <c r="I62" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S31">
-    <sortCondition ref="A1:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:T50">
+    <sortCondition ref="B1:B50"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/nsdm-project/main/settings/expert-table.xlsx
+++ b/scripts/nsdm-project/main/settings/expert-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aadde\AppData\Local\Temp\scp39082\work\FAC\FGSE\IDYST\aguisan\valpar\wd_test\scripts\nsdm-project\main\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aadde\switchdrive\Private\nsdm-git\scripts\nsdm-project\main\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C20E5-CD08-4C4E-BAEB-5B68E9D37DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F730A1-B43E-41A8-A6CF-6FFA364C5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,13 +414,13 @@
     <t>level</t>
   </si>
   <si>
-    <t>loc</t>
-  </si>
-  <si>
     <t>glo</t>
   </si>
   <si>
     <t>chelsa</t>
+  </si>
+  <si>
+    <t>reg</t>
   </si>
 </sst>
 </file>
@@ -796,29 +796,29 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D125" sqref="D125"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="15"/>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="15"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="77" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.33203125" style="1" customWidth="1"/>
-    <col min="10" max="20" width="8.88671875" style="2"/>
-    <col min="21" max="16384" width="8.88671875" style="15"/>
+    <col min="6" max="6" width="66.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="1" customWidth="1"/>
+    <col min="10" max="20" width="8.85546875" style="2"/>
+    <col min="21" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
@@ -847,15 +847,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -876,15 +876,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -905,15 +905,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
@@ -934,15 +934,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -963,15 +963,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
@@ -992,15 +992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -1021,15 +1021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
@@ -1050,15 +1050,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -1079,15 +1079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>25</v>
@@ -1108,15 +1108,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
@@ -1137,15 +1137,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>29</v>
@@ -1166,15 +1166,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>31</v>
@@ -1195,15 +1195,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>33</v>
@@ -1224,15 +1224,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>35</v>
@@ -1253,15 +1253,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>37</v>
@@ -1282,15 +1282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>39</v>
@@ -1311,15 +1311,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>41</v>
@@ -1340,15 +1340,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>44</v>
@@ -1369,15 +1369,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>46</v>
@@ -1398,9 +1398,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>120</v>
@@ -1427,9 +1427,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>120</v>
@@ -1456,9 +1456,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>120</v>
@@ -1485,9 +1485,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>120</v>
@@ -1514,9 +1514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>120</v>
@@ -1543,9 +1543,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>120</v>
@@ -1572,9 +1572,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>120</v>
@@ -1601,9 +1601,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>120</v>
@@ -1630,9 +1630,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>120</v>
@@ -1659,9 +1659,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>120</v>
@@ -1688,9 +1688,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>120</v>
@@ -1717,9 +1717,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>120</v>
@@ -1746,9 +1746,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>120</v>
@@ -1775,9 +1775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>120</v>
@@ -1804,9 +1804,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>120</v>
@@ -1833,9 +1833,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>120</v>
@@ -1862,9 +1862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>120</v>
@@ -1891,9 +1891,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>120</v>
@@ -1920,9 +1920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>120</v>
@@ -1949,9 +1949,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>48</v>
@@ -1978,9 +1978,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>48</v>
@@ -2007,9 +2007,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>48</v>
@@ -2036,9 +2036,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>48</v>
@@ -2065,9 +2065,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>48</v>
@@ -2094,9 +2094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>48</v>
@@ -2123,9 +2123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>48</v>
@@ -2152,9 +2152,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>48</v>
@@ -2181,9 +2181,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>121</v>
@@ -2210,9 +2210,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>121</v>
@@ -2239,9 +2239,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>121</v>
@@ -2268,9 +2268,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>122</v>
@@ -2297,9 +2297,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>99</v>
@@ -2326,9 +2326,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>99</v>
@@ -2355,9 +2355,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>124</v>
@@ -2384,9 +2384,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>125</v>
@@ -2413,9 +2413,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>125</v>
@@ -2442,9 +2442,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>125</v>
@@ -2471,9 +2471,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>125</v>
@@ -2500,9 +2500,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>125</v>
@@ -2529,9 +2529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>125</v>
@@ -2558,9 +2558,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>125</v>
@@ -2587,9 +2587,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>125</v>
